--- a/作业需求.xlsx
+++ b/作业需求.xlsx
@@ -330,25 +330,16 @@
   <si>
     <r>
       <t>基本完成，但课程信息表单太简陋，
-至少要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显示id，课程名和老师名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，只知道课程id又如何确定要查看的课程详情？
+至少要显示id，课程名和老师名，只知道课程id又如何确定要查看的课程详情？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -390,6 +381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本完成，考虑到uc15的描述，需要加一个</t>
     </r>
     <r>
@@ -449,26 +446,26 @@
   </si>
   <si>
     <r>
-      <t>功能基本完成，但很不人性化；
-基于现在的情况，创建小组的功能应该从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>课程处跳转以自动填上课程号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，避免不必要的查询；
+      <t xml:space="preserve">功能基本完成，但很不人性化；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于现在的情况，创建小组的功能应该从课程处跳转以自动填上课程号，避免不必要的查询；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 解散小组等功能最好实现或者删除；
 还应增加一个</t>
     </r>
@@ -502,6 +499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>功能基本完成，但很不人性化；
 基于现在的情况，</t>
     </r>
@@ -569,6 +572,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本完成，但学生还需要</t>
     </r>
     <r>
@@ -699,10 +708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -729,6 +738,35 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,6 +785,36 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -755,28 +823,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,98 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -914,31 +922,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,151 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,17 +1192,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,9 +1233,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,13 +1251,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,152 +1270,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1448,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1813,9 +1824,9 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1963,7 +1974,7 @@
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2046,7 +2057,7 @@
       <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2061,7 +2072,7 @@
     </row>
     <row r="16" ht="30" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2079,36 +2090,36 @@
       <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" ht="135" spans="3:4">
       <c r="C22" s="2" t="s">

--- a/作业需求.xlsx
+++ b/作业需求.xlsx
@@ -284,12 +284,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>如果只有一个学生名单，则直接显示学生信息列表，1：学号，2：姓名，3：</t>
     </r>
     <r>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本完成，但课程信息表单太简陋，
 至少要显示id，课程名和老师名，只知道课程id又如何确定要查看的课程详情？</t>
     </r>
@@ -351,18 +351,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>显示本小组历次作业的信息，按照</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -446,6 +439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">功能基本完成，但很不人性化；
 </t>
     </r>
@@ -499,12 +498,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>功能基本完成，但很不人性化；
 基于现在的情况，</t>
     </r>
@@ -524,8 +517,26 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>，避免不必要的查询；
-上传的作业最好学生端也可以下载下来；
+      <t xml:space="preserve">，避免不必要的查询；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传的作业最好学生端也可以下载下来；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 作业信息显示最好再优化一下；
 上传作业前需要判断能否上传，如是否组长，小组人数是否在范围内，</t>
     </r>
@@ -708,10 +719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -747,7 +758,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,74 +878,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -837,9 +886,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,43 +901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -922,43 +933,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,43 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,18 +1089,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1042,67 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,39 +1180,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1212,6 +1190,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,13 +1218,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,6 +1256,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1273,10 +1284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,133 +1296,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1824,9 +1835,9 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/作业需求.xlsx
+++ b/作业需求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>角色</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果只有一个学生名单，则直接显示学生信息列表，1：学号，2：姓名，3：</t>
     </r>
     <r>
@@ -351,6 +357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>显示本小组历次作业的信息，按照</t>
     </r>
     <r>
@@ -374,22 +386,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基本完成，考虑到uc15的描述，需要加一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作业提交提醒</t>
+      <t>基本完成，考虑到uc15的描述，需要加一个作业提交提醒</t>
     </r>
     <r>
       <rPr>
@@ -439,13 +436,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">功能基本完成，但很不人性化；
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -465,27 +456,39 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-解散小组等功能最好实现或者删除；
-还应增加一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组长打分功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，对应uc17的描述，分数存放在group_student的grade里，分数为100分制。</t>
-    </r>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解散小组等功能最好实现或者删除；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还应增加一个组长打分功能，对应uc17的描述，分数存放在group_student的grade里，分数为100分制。</t>
+    </r>
+  </si>
+  <si>
+    <t>组长打分的有效区间【60,100】，否则不生效</t>
   </si>
   <si>
     <t>UC34</t>
@@ -498,26 +501,26 @@
   </si>
   <si>
     <r>
-      <t>功能基本完成，但很不人性化；
-基于现在的情况，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交作业的功能应该从作业要求处跳转以自动填上作业号和小组号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，避免不必要的查询；
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于现在的情况，提交作业的功能应该从作业要求处跳转以自动填上作业号和小组号，避免不必要的查询；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -538,7 +541,7 @@
       </rPr>
       <t xml:space="preserve">
 作业信息显示最好再优化一下；
-上传作业前需要判断能否上传，如是否组长，小组人数是否在范围内，</t>
+上传作业前需要判断能否上传，如</t>
     </r>
     <r>
       <rPr>
@@ -547,7 +550,61 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>该作业是否过期，是否结课</t>
+      <t>是否组长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组人数是否在范围内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该作业是否过期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否结课</t>
     </r>
     <r>
       <rPr>
@@ -558,6 +615,9 @@
       </rPr>
       <t>等；</t>
     </r>
+  </si>
+  <si>
+    <t>上传作业不需要考虑是否结课，因为只要该作业的过期时间一定早于结课时间；</t>
   </si>
   <si>
     <t>UC35</t>
@@ -720,11 +780,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,15 +817,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,10 +846,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,8 +882,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,43 +938,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -887,15 +961,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,43 +999,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,139 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,6 +1270,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1218,26 +1299,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,11 +1336,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,137 +1362,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,6 +1527,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1832,15 +1904,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.37962962962963" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.62962962962963" style="1" customWidth="1"/>
@@ -2000,11 +2072,11 @@
       <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="120" spans="1:5">
+    <row r="11" ht="120" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -2018,126 +2090,132 @@
       <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" ht="135" spans="1:5">
+    <row r="12" ht="135" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="12" t="s">
-        <v>62</v>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="14" t="s">
         <v>68</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>69</v>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" ht="135" spans="3:4">
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
